--- a/biology/Histoire de la zoologie et de la botanique/Raymond_Decary/Raymond_Decary.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Raymond_Decary/Raymond_Decary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Raymond Decary est un scientifique français, né le 22 novembre 1891 à Méry-sur-Seine (Aube) et mort le 13 décembre 1973 à Paris.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est difficile de classer Raymond Decary dans une catégorie de chercheurs. D'une très grande érudition polyvalente, il était doué d'une puissance de travail peu commune qui lui permit de faire face à des tâches multiples. Tour à tour naturaliste, ethnologue, géologue, historien, linguiste, il aborda pratiquement tous les domaines de recherche à Madagascar. Son œuvre de naturaliste est prodigieuse. En ce qui concerne la botanique et la zoologie, une dizaine de genres et des centaines d'espèces lui sont dédiées. Au Muséum national d'histoire naturelle, l'herbier qu'il a constitué rassemble plus de 40 000 échantillons de la flore malgache. Il rédigea plus de 400 articles et une vingtaine d'ouvrages. En cela, il a pris la suite de l'œuvre monumentale d'Alfred et Guillaume Grandidier.
 C'est parce qu'il fut administrateur des colonies – proche de ses administrés avec qui il conversait en malgache – qu'il lui fut possible de produire, en marge de ses fonctions civiles, une œuvre scientifique originale. Son Journal quotidien, rédigé à Madagascar de 1916 à 1945, l'atteste : 
@@ -547,7 +561,9 @@
           <t>Quelques dates</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1891 : naissance à Méry-sur-Seine (Aube)
 1912 : licencié en Droit
